--- a/KittingToolResources/SourceChecklists/TAP223-090821-021RC Cableset (KittingTool).xlsx
+++ b/KittingToolResources/SourceChecklists/TAP223-090821-021RC Cableset (KittingTool).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Work\KittingToolCLOSEDSOURCE\KittingTool\KittingToolResources\SourceChecklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Work\KittingSystemRepository\KittingToolResources\SourceChecklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13159BC-059D-498D-BBD7-CEB79D26A4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A088AFC-0947-4A04-A496-FD910EDE8F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD4F9D48-5085-4270-9640-C606376CAECD}"/>
   </bookViews>
@@ -220,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,20 +243,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -266,7 +257,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,9 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC58E0B-D665-4666-BC85-9733C67E3F05}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -620,7 +608,7 @@
         <v>42</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
